--- a/Bank.xlsx
+++ b/Bank.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,20 +451,15 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Balance</t>
+          <t>Mobile_No</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Mobile_No</t>
+          <t>Adhar_No</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Adhar_No</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
@@ -477,32 +468,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>santoshi</t>
+          <t>Bhuvan</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>snt</t>
+          <t>Bhuvan12</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>50000</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>6363636363</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>654125412365</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>45493.47391568104</v>
+        <v>4563214789</v>
+      </c>
+      <c r="E2" t="n">
+        <v>987456321012</v>
+      </c>
+      <c r="F2" t="n">
+        <v>124587</v>
       </c>
     </row>
   </sheetData>
